--- a/foaie_parcurs_B-151-VGT_octombrie_2021_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_octombrie_2021_Alex_Bora.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a049689\Desktop\pers\MING\home\a049689\tmp\parcurs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABCF7F0-2667-41B1-927C-29BA24377D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="octombrie 2021" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'octombrie 2021'!$A$1:$F$91</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,11 +142,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,#"/>
+    <numFmt numFmtId="164" formatCode="#,###"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -209,6 +227,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -218,6 +239,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -238,7 +267,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -307,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +374,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,6 +426,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,42 +619,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -591,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -599,7 +672,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -607,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -615,7 +688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -623,20 +696,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>75624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>72738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -650,7 +723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -664,7 +737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -672,7 +745,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -680,7 +753,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -694,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5</v>
       </c>
@@ -708,7 +781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>6</v>
       </c>
@@ -722,7 +795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -736,7 +809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>8</v>
       </c>
@@ -750,7 +823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>9</v>
       </c>
@@ -758,7 +831,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -766,7 +839,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>11</v>
       </c>
@@ -780,7 +853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>12</v>
       </c>
@@ -794,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>13</v>
       </c>
@@ -808,7 +881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>14</v>
       </c>
@@ -822,7 +895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>15</v>
       </c>
@@ -836,7 +909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>16</v>
       </c>
@@ -844,7 +917,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>17</v>
       </c>
@@ -852,7 +925,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>18</v>
       </c>
@@ -866,7 +939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>19</v>
       </c>
@@ -880,7 +953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>20</v>
       </c>
@@ -894,7 +967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>21</v>
       </c>
@@ -908,7 +981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>22</v>
       </c>
@@ -922,7 +995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>23</v>
       </c>
@@ -930,7 +1003,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>24</v>
       </c>
@@ -938,7 +1011,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>25</v>
       </c>
@@ -952,7 +1025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>26</v>
       </c>
@@ -966,7 +1039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>27</v>
       </c>
@@ -980,7 +1053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>28</v>
       </c>
@@ -994,7 +1067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>29</v>
       </c>
@@ -1008,7 +1081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>30</v>
       </c>
@@ -1016,7 +1089,7 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>31</v>
       </c>
@@ -1024,107 +1097,104 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B76" s="5">
+        <f>SUM(B15:B75)</f>
         <v>3007</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B77" s="5">
-        <v>78631</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="6" t="s">
+        <f>SUM(B76+B12)</f>
+        <v>75745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="6" t="s">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="6" t="s">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="6" t="s">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="6" t="s">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="6" t="s">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A86:D87"/>
+    <mergeCell ref="A88:D89"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A80:D81"/>
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A86:D87"/>
-    <mergeCell ref="A88:D89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:XFD1048576" numberStoredAsText="1"/>
-    <ignoredError sqref="A1:XFD1048576" listDataValidation="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>